--- a/biology/Zoologie/Heteroonops_castellus/Heteroonops_castellus.xlsx
+++ b/biology/Zoologie/Heteroonops_castellus/Heteroonops_castellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteroonops castellus est une espèce d'araignées aranéomorphes de la famille des Oonopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteroonops castellus est une espèce d'araignées aranéomorphes de la famille des Oonopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du banc de Porto Rico. Elle se rencontre à Porto Rico, à Saint John, à Saint Thomas et à Tortola[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du banc de Porto Rico. Elle se rencontre à Porto Rico, à Saint John, à Saint Thomas et à Tortola,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,65 mm et la femelle paratype 1,87 mm[3]
-Le mâle décrit par Platnick et Dupérré en 2009 mesure 1,68 mm et la femelle 1,98 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,65 mm et la femelle paratype 1,87 mm
+Le mâle décrit par Platnick et Dupérré en 2009 mesure 1,68 mm et la femelle 1,98 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Oonops castellus par Chickering en 1972. Elle est placée dans le genre Heteroonops par Platnick et Dupérré en 2009[2] qui dans le même temps placent Oonops delegenus en synonymie..
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Oonops castellus par Chickering en 1972. Elle est placée dans le genre Heteroonops par Platnick et Dupérré en 2009 qui dans le même temps placent Oonops delegenus en synonymie..
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chickering, 1972 : « The genus Oonops (Araneae, Oonopidae) in Panama and the West Indies. Part 2. » Psyche, vol. 78, p. 203-214 (texte intégral).</t>
         </is>
